--- a/NEW HAVEN/NEW_HAVEN.xlsx
+++ b/NEW HAVEN/NEW_HAVEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t xml:space="preserve">CITY STATES</t>
   </si>
@@ -43,13 +43,7 @@
     <t xml:space="preserve">CHICAGO-2</t>
   </si>
   <si>
-    <t xml:space="preserve">agdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjhagdhslkgjdhkjh</t>
-  </si>
-  <si>
     <t xml:space="preserve">NEW SHINJUKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXT</t>
   </si>
   <si>
     <t xml:space="preserve">HANOI</t>
@@ -996,7 +990,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1035,61 +1029,51 @@
         <v>3333</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1385</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>4935</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4440</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>3278</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,70 +1181,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,250)</f>
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="D2" s="10" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(250,500)</f>
-        <v>463</v>
+        <v>250</v>
       </c>
       <c r="E2" s="10" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(500,1000)</f>
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="F2" s="10" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1000,1550)</f>
-        <v>1066</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="10" t="n">
         <f aca="false">C2</f>
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="10" t="n">
         <f aca="false">D2-C2</f>
-        <v>427</v>
+        <v>65</v>
       </c>
       <c r="E3" s="10" t="n">
         <f aca="false">E2-C2</f>
-        <v>622</v>
+        <v>494</v>
       </c>
       <c r="F3" s="10" t="n">
         <f aca="false">F2-C2</f>
-        <v>1030</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,67 +1253,67 @@
       </c>
       <c r="B4" s="10" t="n">
         <f aca="false">D2</f>
-        <v>463</v>
+        <v>250</v>
       </c>
       <c r="C4" s="10" t="n">
         <f aca="false">D2-C2</f>
-        <v>427</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">E3-D3</f>
-        <v>195</v>
+        <v>429</v>
       </c>
       <c r="F4" s="10" t="n">
         <f aca="false">F3-D3</f>
-        <v>603</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10" t="n">
         <f aca="false">E2</f>
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="C5" s="10" t="n">
         <f aca="false">E2-C2</f>
-        <v>622</v>
+        <v>494</v>
       </c>
       <c r="D5" s="10" t="n">
         <f aca="false">E3-D3</f>
-        <v>195</v>
+        <v>429</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="10" t="n">
         <f aca="false">F4-E4</f>
-        <v>408</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10" t="n">
         <f aca="false">F2</f>
-        <v>1066</v>
+        <v>1546</v>
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">F2-C2</f>
-        <v>1030</v>
+        <v>1361</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">F3-D3</f>
-        <v>603</v>
+        <v>1296</v>
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">F2-E2</f>
-        <v>408</v>
+        <v>867</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>0</v>
@@ -1404,27 +1388,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="13" t="n">
         <v>0</v>
@@ -1438,10 +1422,10 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>0</v>
@@ -1455,10 +1439,10 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>0</v>
@@ -1472,10 +1456,10 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>0</v>
@@ -1553,199 +1537,199 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(25,100)</f>
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5000,50000)</f>
-        <v>24944</v>
+        <v>25166</v>
       </c>
       <c r="D2" s="17" t="n">
         <f aca="false">City_State_Distances!F2/B2</f>
-        <v>14.6027397260274</v>
+        <v>49.8709677419355</v>
       </c>
       <c r="E2" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,50)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F2" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(100,1000)</f>
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="G2" s="18" t="n">
         <f aca="false">F2/D2</f>
-        <v>49.3058161350844</v>
+        <v>14.1164294954722</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(25,100)</f>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C3" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5000,50000)</f>
-        <v>31122</v>
+        <v>5767</v>
       </c>
       <c r="D3" s="17" t="n">
         <f aca="false">City_State_Distances!F2/B3</f>
-        <v>11.1041666666667</v>
+        <v>20.3421052631579</v>
       </c>
       <c r="E3" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,50)</f>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F3" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(100,1000)</f>
-        <v>766</v>
+        <v>797</v>
       </c>
       <c r="G3" s="18" t="n">
         <f aca="false">F3/D3</f>
-        <v>68.9831144465291</v>
+        <v>39.1798188874515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(25,100)</f>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C4" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5000,50000)</f>
-        <v>32246</v>
+        <v>43495</v>
       </c>
       <c r="D4" s="17" t="n">
         <f aca="false">City_State_Distances!F2/B4</f>
-        <v>12.5411764705882</v>
+        <v>24.15625</v>
       </c>
       <c r="E4" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,50)</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F4" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(100,1000)</f>
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G4" s="18" t="n">
         <f aca="false">F4/D4</f>
-        <v>33.8883677298311</v>
+        <v>17.4695989650712</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(25,100)</f>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C5" s="19" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5000,50000)</f>
-        <v>22387</v>
+        <v>9610</v>
       </c>
       <c r="D5" s="17" t="n">
         <f aca="false">City_State_Distances!F2/B5</f>
-        <v>19.3818181818182</v>
+        <v>17.5681818181818</v>
       </c>
       <c r="E5" s="20" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,50)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="20" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(100,1000)</f>
-        <v>977</v>
+        <v>360</v>
       </c>
       <c r="G5" s="18" t="n">
         <f aca="false">F5/D5</f>
-        <v>50.4080675422139</v>
+        <v>20.4915912031048</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(25,100)</f>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C6" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5000,50000)</f>
-        <v>23087</v>
+        <v>27955</v>
       </c>
       <c r="D6" s="17" t="n">
         <f aca="false">City_State_Distances!F2/B6</f>
-        <v>12.6904761904762</v>
+        <v>28.1090909090909</v>
       </c>
       <c r="E6" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,50)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(100,1000)</f>
-        <v>373</v>
+        <v>993</v>
       </c>
       <c r="G6" s="18" t="n">
         <f aca="false">F6/D6</f>
-        <v>29.3921200750469</v>
+        <v>35.3266494178525</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(25,100)</f>
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5000,50000)</f>
-        <v>18955</v>
+        <v>8791</v>
       </c>
       <c r="D7" s="17" t="n">
         <f aca="false">City_State_Distances!F2/B7</f>
-        <v>28.8108108108108</v>
+        <v>24.9354838709677</v>
       </c>
       <c r="E7" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,50)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="18" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(100,1000)</f>
-        <v>230</v>
+        <v>861</v>
       </c>
       <c r="G7" s="18" t="n">
         <f aca="false">F7/D7</f>
-        <v>7.98311444652908</v>
+        <v>34.529107373868</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,21 +1779,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="22" t="n">
         <v>750</v>
@@ -1819,12 +1803,12 @@
       </c>
       <c r="D2" s="23" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(B2,C2)</f>
-        <v>840</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="22" t="n">
         <v>125</v>
@@ -1834,12 +1818,12 @@
       </c>
       <c r="D3" s="23" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(B3,C3)</f>
-        <v>491</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="22" t="n">
         <v>300</v>
@@ -1849,12 +1833,12 @@
       </c>
       <c r="D4" s="23" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(B4,C4)</f>
-        <v>637</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="22" t="n">
         <v>1200</v>
@@ -1864,12 +1848,12 @@
       </c>
       <c r="D5" s="23" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(B5,C5)</f>
-        <v>4610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="22" t="n">
         <v>250</v>
@@ -1879,7 +1863,7 @@
       </c>
       <c r="D6" s="23" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(B6,C6)</f>
-        <v>428</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,33 +1910,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>0</v>
@@ -1978,7 +1962,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="29" t="n">
         <v>0</v>
@@ -2004,7 +1988,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="29" t="n">
         <v>0</v>
@@ -2030,7 +2014,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="29" t="n">
         <v>0</v>
@@ -2056,7 +2040,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="29" t="n">
         <v>0</v>
@@ -2082,7 +2066,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="29" t="n">
         <v>0</v>
@@ -2108,7 +2092,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">SUBTOTAL(9,B2:B7)</f>
@@ -2141,7 +2125,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="35" t="n">
         <f aca="false">10-B8</f>
@@ -2264,7 +2248,7 @@
     </row>
     <row r="2" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="40"/>
@@ -2282,7 +2266,7 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="40"/>
@@ -2300,7 +2284,7 @@
     </row>
     <row r="4" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="40"/>
@@ -2318,7 +2302,7 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="40"/>
@@ -2336,7 +2320,7 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="40"/>
